--- a/data/boosted_decision_tree_results.xlsx
+++ b/data/boosted_decision_tree_results.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.000717</v>
+        <v>0.000902</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000669</v>
+        <v>0.000715</v>
       </c>
       <c r="C2" t="n">
-        <v>0.103354</v>
+        <v>0.09654799999999999</v>
       </c>
       <c r="D2" t="n">
         <v>0.000125</v>
